--- a/bots/crawl_ch/output/toilet_coop_2022-08-26.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-26.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1761,135 +1761,135 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-26 07:06:29</t>
+          <t>2022-08-26 20:59:18</t>
         </is>
       </c>
     </row>
